--- a/MB Change Request Form.xlsx
+++ b/MB Change Request Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reyesholdings-my.sharepoint.com/personal/amicallef_martinbrower_com/Documents/Desktop/AIM Policies and Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E7594BE8-6E4E-427F-9DEB-75CBC42D0873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB6C5B5F-6456-423F-B877-B7CADB38943D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE46C1E-A864-4D83-9B47-C7D7D0D77064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="334">
   <si>
     <r>
       <t xml:space="preserve">
@@ -238,6 +238,9 @@
     <t>BEEF 4:1 DBL LINER A</t>
   </si>
   <si>
+    <t xml:space="preserve"> Submit this form by 8am (AEST), the day after you receive your Order Proposal</t>
+  </si>
+  <si>
     <t>RESTAURANT:</t>
   </si>
   <si>
@@ -265,42 +268,54 @@
     <t>Restaurant Action/Feedback for Restaurant</t>
   </si>
   <si>
+    <t>Item Look Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type part of the product name in yellow box below then press enter </t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>Wrin</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>If you have any questions, please contact your Restaurant Planner.</t>
+  </si>
+  <si>
+    <t>Version 1.3 - 14 August 2023</t>
+  </si>
+  <si>
+    <t>:P</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>search match</t>
+  </si>
+  <si>
+    <t>1 cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE SLICES </t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
     <t xml:space="preserve">BACON RASHER </t>
   </si>
   <si>
-    <t>Item Look Up</t>
-  </si>
-  <si>
-    <t>Wrin</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>If you have any questions, please contact your Restaurant Planner.</t>
-  </si>
-  <si>
-    <t>Version 1.3 - 14 August 2023</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>1 cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE SLICES </t>
-  </si>
-  <si>
-    <t>Decrease</t>
-  </si>
-  <si>
     <t>BAG B</t>
   </si>
   <si>
@@ -577,6 +592,9 @@
     <t>CHICKEN PATTIES MCCHICKEN</t>
   </si>
   <si>
+    <t>CHICK PATTIES FC</t>
+  </si>
+  <si>
     <t>CHICKEN PATTIES SPICY</t>
   </si>
   <si>
@@ -1163,24 +1181,6 @@
   </si>
   <si>
     <t>YOG YOPLAIT STRAWBERRY</t>
-  </si>
-  <si>
-    <t>search match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type part of the product name in yellow box below then press enter </t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>:P</t>
-  </si>
-  <si>
-    <t>CHICK PATTIES FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Submit this form by 8am (AEST), the day after you receive your Order Proposal</t>
   </si>
 </sst>
 </file>
@@ -2249,6 +2249,57 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="32" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2279,16 +2330,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2361,62 +2408,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2815,58 +2815,58 @@
   <dimension ref="A1:AWB150984"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="35.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="49.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="1.77734375" style="2" customWidth="1"/>
-    <col min="17" max="19" width="9.21875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="49.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="2" customWidth="1"/>
+    <col min="17" max="19" width="9.28515625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" customHeight="1">
-      <c r="B1" s="124"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="169"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="129"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="130"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="171"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="90"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
       <c r="I3" s="89"/>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
@@ -2878,13 +2878,13 @@
       <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="129"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="130"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="171"/>
       <c r="I4" s="77"/>
       <c r="J4" s="77"/>
       <c r="K4" s="77"/>
@@ -2914,15 +2914,15 @@
       <c r="Q5" s="78"/>
     </row>
     <row r="6" spans="1:17" ht="41.25" customHeight="1">
-      <c r="B6" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="152"/>
+      <c r="B6" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
       <c r="K6" s="77"/>
@@ -2952,15 +2952,15 @@
       <c r="Q7" s="78"/>
     </row>
     <row r="8" spans="1:17" ht="51" customHeight="1">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="161"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="127"/>
       <c r="I8" s="77"/>
       <c r="J8" s="77"/>
       <c r="K8" s="77"/>
@@ -2972,15 +2972,15 @@
       <c r="Q8" s="78"/>
     </row>
     <row r="9" spans="1:17" ht="53.25" customHeight="1">
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="162"/>
       <c r="I9" s="77"/>
       <c r="J9" s="77"/>
       <c r="K9" s="77"/>
@@ -2992,15 +2992,15 @@
       <c r="Q9" s="78"/>
     </row>
     <row r="10" spans="1:17" ht="21.75" customHeight="1">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="81"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="137"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="150"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
       <c r="K10" s="77"/>
@@ -3012,15 +3012,15 @@
       <c r="Q10" s="78"/>
     </row>
     <row r="11" spans="1:17" ht="21.75" customHeight="1">
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="158"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="84"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
       <c r="K11" s="77"/>
@@ -3032,10 +3032,10 @@
       <c r="Q11" s="78"/>
     </row>
     <row r="12" spans="1:17" ht="21.75" customHeight="1">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="85"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
@@ -3052,15 +3052,15 @@
       <c r="Q12" s="78"/>
     </row>
     <row r="13" spans="1:17" ht="21.75" customHeight="1">
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="158"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="84"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
       <c r="K13" s="77"/>
@@ -3072,15 +3072,15 @@
       <c r="Q13" s="78"/>
     </row>
     <row r="14" spans="1:17" ht="21.75" customHeight="1">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="158"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="82"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
       <c r="K14" s="77"/>
@@ -3092,15 +3092,15 @@
       <c r="Q14" s="78"/>
     </row>
     <row r="15" spans="1:17" ht="24" customHeight="1">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="144"/>
+      <c r="C15" s="157"/>
       <c r="D15" s="82"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="163"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
       <c r="K15" s="77"/>
@@ -3112,13 +3112,13 @@
       <c r="Q15" s="78"/>
     </row>
     <row r="16" spans="1:17" ht="22.5" customHeight="1">
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
       <c r="D16" s="83"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="155"/>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
       <c r="K16" s="77"/>
@@ -3148,15 +3148,15 @@
       <c r="Q17" s="78"/>
     </row>
     <row r="18" spans="2:28" ht="21.75" customHeight="1">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="140"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="153"/>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
       <c r="K18" s="77"/>
@@ -3290,15 +3290,15 @@
       <c r="Q23" s="78"/>
     </row>
     <row r="24" spans="2:28" ht="25.5" customHeight="1">
-      <c r="B24" s="131" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="133"/>
+      <c r="B24" s="144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
       <c r="I24" s="77"/>
       <c r="J24" s="77"/>
       <c r="K24" s="77"/>
@@ -3312,13 +3312,13 @@
     <row r="25" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="16"/>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="172"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
       <c r="K25" s="77"/>
@@ -3332,13 +3332,13 @@
     <row r="26" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="16"/>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="174"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
       <c r="I26" s="77"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
@@ -3352,13 +3352,13 @@
     <row r="27" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="16"/>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="172"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
       <c r="I27" s="77"/>
       <c r="J27" s="77"/>
       <c r="K27" s="77"/>
@@ -3372,13 +3372,13 @@
     <row r="28" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="16"/>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="176"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
       <c r="I28" s="77"/>
       <c r="J28" s="77"/>
       <c r="K28" s="77"/>
@@ -3403,13 +3403,13 @@
     <row r="29" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="16"/>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="176"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="120"/>
       <c r="I29" s="77"/>
       <c r="J29" s="77"/>
       <c r="K29" s="77"/>
@@ -3439,10 +3439,10 @@
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
       <c r="H30" s="71"/>
-      <c r="I30" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="123"/>
+      <c r="I30" s="139" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="140"/>
       <c r="K30" s="51"/>
       <c r="Q30" s="18"/>
       <c r="R30" s="15"/>
@@ -3478,13 +3478,13 @@
         <v>15</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J31" s="41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L31" s="53"/>
       <c r="Q31" s="18"/>
@@ -3501,12 +3501,8 @@
       <c r="AB31" s="15"/>
     </row>
     <row r="32" spans="2:28" ht="33.75" customHeight="1">
-      <c r="B32" s="39">
-        <v>112085</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>28</v>
-      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="87"/>
       <c r="E32" s="22"/>
       <c r="F32" s="27"/>
@@ -3546,11 +3542,11 @@
       <c r="J33" s="4"/>
       <c r="K33" s="26"/>
       <c r="L33" s="53"/>
-      <c r="N33" s="119" t="s">
-        <v>329</v>
-      </c>
-      <c r="O33" s="120"/>
-      <c r="P33" s="121"/>
+      <c r="N33" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="137"/>
+      <c r="P33" s="138"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
@@ -3576,11 +3572,11 @@
       <c r="J34" s="4"/>
       <c r="K34" s="26"/>
       <c r="L34" s="53"/>
-      <c r="N34" s="115" t="s">
-        <v>330</v>
-      </c>
-      <c r="O34" s="116"/>
-      <c r="P34" s="117"/>
+      <c r="N34" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="133"/>
+      <c r="P34" s="134"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
@@ -3606,9 +3602,9 @@
       <c r="J35" s="4"/>
       <c r="K35" s="26"/>
       <c r="L35" s="53"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="117"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="134"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
@@ -3635,10 +3631,10 @@
       <c r="K36" s="26"/>
       <c r="L36" s="53"/>
       <c r="N36" s="92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O36" s="93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P36" s="94"/>
       <c r="Q36" s="18"/>
@@ -5104,13 +5100,13 @@
     <row r="98" spans="2:17" ht="22.5" customHeight="1">
       <c r="B98" s="54"/>
       <c r="C98" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E98" s="55"/>
       <c r="F98" s="55"/>
       <c r="G98" s="55"/>
       <c r="H98" s="76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I98" s="62">
         <f>SUM(I32:I97)</f>
@@ -5132,16 +5128,16 @@
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
     </row>
-    <row r="99" spans="2:17" ht="14.4" thickBot="1">
-      <c r="B99" s="168" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" s="169"/>
-      <c r="D99" s="169"/>
-      <c r="E99" s="169"/>
-      <c r="F99" s="169"/>
-      <c r="G99" s="169"/>
-      <c r="H99" s="170"/>
+    <row r="99" spans="2:17" ht="14.45" thickBot="1">
+      <c r="B99" s="172" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="173"/>
+      <c r="D99" s="173"/>
+      <c r="E99" s="173"/>
+      <c r="F99" s="173"/>
+      <c r="G99" s="173"/>
+      <c r="H99" s="174"/>
       <c r="N99" s="113" t="str" cm="1">
         <f t="array" ref="N99">IFERROR(INDEX('Product List'!$A$2:$A$1002,MATCH(0,IF(1='Product List'!$C$2:$C$1002,COUNTIF('Change Request Form'!$N$36:$N98,'Product List'!$A$2:$A$1002),""),0)),"")</f>
         <v/>
@@ -5167,15 +5163,15 @@
       <c r="Q100" s="17"/>
     </row>
     <row r="101" spans="2:17">
-      <c r="B101" s="166" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="167"/>
-      <c r="D101" s="167"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="167"/>
-      <c r="G101" s="167"/>
-      <c r="H101" s="167"/>
+      <c r="B101" s="175" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="176"/>
+      <c r="D101" s="176"/>
+      <c r="E101" s="176"/>
+      <c r="F101" s="176"/>
+      <c r="G101" s="176"/>
+      <c r="H101" s="176"/>
       <c r="N101" s="113" t="str" cm="1">
         <f t="array" ref="N101">IFERROR(INDEX('Product List'!$A$2:$A$1002,MATCH(0,IF(1='Product List'!$C$2:$C$1002,COUNTIF('Change Request Form'!$N$36:$N100,'Product List'!$A$2:$A$1002),""),0)),"")</f>
         <v/>
@@ -5330,7 +5326,7 @@
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="2:17" ht="14.4" thickBot="1">
+    <row r="113" spans="2:17" ht="14.45" thickBot="1">
       <c r="B113" s="16"/>
       <c r="N113" s="114" t="str" cm="1">
         <f t="array" ref="N113">IFERROR(INDEX('Product List'!$A$2:$A$1002,MATCH(0,IF(1='Product List'!$C$2:$C$1002,COUNTIF('Change Request Form'!$N$36:$N112,'Product List'!$A$2:$A$1002),""),0)),"")</f>
@@ -5343,7 +5339,7 @@
       <c r="P113" s="21"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="2:17" ht="14.4" thickBot="1">
+    <row r="114" spans="2:17" ht="14.45" thickBot="1">
       <c r="B114" s="19"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -5363,26 +5359,11 @@
     </row>
     <row r="150984" spans="1276:1276">
       <c r="AWB150984" s="2" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="N34:P35"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="I30:J30"/>
@@ -5399,6 +5380,21 @@
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -5449,30 +5445,30 @@
       <selection activeCell="A151" sqref="A151:XFD151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="102" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="91" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="9" max="24" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="102" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="91" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="24" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8">
+    <row r="1" spans="1:7" ht="22.9">
       <c r="A1" s="100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -5483,22 +5479,22 @@
         <v>8549021</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B2,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.899999999999999">
       <c r="A3" s="104">
         <v>112085</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B3,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5510,7 +5506,7 @@
         <v>15263011</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B4,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5522,7 +5518,7 @@
         <v>15263000</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B5,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5534,7 +5530,7 @@
         <v>141571</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B6,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5546,7 +5542,7 @@
         <v>141368</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B7,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5558,7 +5554,7 @@
         <v>127941</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B8,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5573,7 +5569,7 @@
         <v>5429611</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B9,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5588,7 +5584,7 @@
         <v>5429684</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B10,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5603,7 +5599,7 @@
         <v>5429612</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B11,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5618,7 +5614,7 @@
         <v>3723350</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B12,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5633,7 +5629,7 @@
         <v>141572</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B13,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5645,7 +5641,7 @@
         <v>141542</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B14,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5657,7 +5653,7 @@
         <v>141574</v>
       </c>
       <c r="B15" s="106" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B15,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5669,7 +5665,7 @@
         <v>141538</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B16,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5681,7 +5677,7 @@
         <v>14205004</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B17,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5693,7 +5689,7 @@
         <v>6145075</v>
       </c>
       <c r="B18" s="106" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B18,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5705,7 +5701,7 @@
         <v>6723080</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B19,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5717,7 +5713,7 @@
         <v>6723100</v>
       </c>
       <c r="B20" s="106" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B20,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5729,7 +5725,7 @@
         <v>12142001</v>
       </c>
       <c r="B21" s="106" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B21,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5741,7 +5737,7 @@
         <v>6358100</v>
       </c>
       <c r="B22" s="106" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B22,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5756,7 +5752,7 @@
         <v>258102</v>
       </c>
       <c r="B23" s="106" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B23,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5768,7 +5764,7 @@
         <v>5059</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B24,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5780,7 +5776,7 @@
         <v>5399</v>
       </c>
       <c r="B25" s="106" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B25,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5792,7 +5788,7 @@
         <v>5052</v>
       </c>
       <c r="B26" s="106" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B26,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5804,7 +5800,7 @@
         <v>5875066</v>
       </c>
       <c r="B27" s="106" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B27,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5816,7 +5812,7 @@
         <v>5875100</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B28,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5828,7 +5824,7 @@
         <v>5875021</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B29,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5840,7 +5836,7 @@
         <v>6085</v>
       </c>
       <c r="B30" s="106" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B30,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5852,7 +5848,7 @@
         <v>6291</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B31,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5864,7 +5860,7 @@
         <v>6147</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B32,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5876,7 +5872,7 @@
         <v>6766046</v>
       </c>
       <c r="B33" s="106" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B33,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5888,7 +5884,7 @@
         <v>6766043</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B34,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5900,7 +5896,7 @@
         <v>10261039</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B35,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5912,7 +5908,7 @@
         <v>18464003</v>
       </c>
       <c r="B36" s="106" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C36">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B36,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5924,7 +5920,7 @@
         <v>15264000</v>
       </c>
       <c r="B37" s="106" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B37,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5936,7 +5932,7 @@
         <v>15288000</v>
       </c>
       <c r="B38" s="106" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B38,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5948,7 +5944,7 @@
         <v>163914</v>
       </c>
       <c r="B39" s="106" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B39,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5960,7 +5956,7 @@
         <v>163917</v>
       </c>
       <c r="B40" s="106" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B40,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5972,7 +5968,7 @@
         <v>6691853</v>
       </c>
       <c r="B41" s="106" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B41,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5984,7 +5980,7 @@
         <v>6691854</v>
       </c>
       <c r="B42" s="106" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B42,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -5996,7 +5992,7 @@
         <v>5582227</v>
       </c>
       <c r="B43" s="106" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B43,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6008,7 +6004,7 @@
         <v>5582228</v>
       </c>
       <c r="B44" s="106" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B44,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6020,7 +6016,7 @@
         <v>5582248</v>
       </c>
       <c r="B45" s="106" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B45,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6035,7 +6031,7 @@
         <v>10638021</v>
       </c>
       <c r="B46" s="106" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B46,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6047,7 +6043,7 @@
         <v>5582249</v>
       </c>
       <c r="B47" s="106" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C47">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B47,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6059,7 +6055,7 @@
         <v>289568</v>
       </c>
       <c r="B48" s="106" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C48">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B48,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6074,7 +6070,7 @@
         <v>10638023</v>
       </c>
       <c r="B49" s="106" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C49">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B49,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6089,7 +6085,7 @@
         <v>10638026</v>
       </c>
       <c r="B50" s="106" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B50,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6104,7 +6100,7 @@
         <v>166496</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B51,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6119,7 +6115,7 @@
         <v>7153124</v>
       </c>
       <c r="B52" s="106" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C52">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B52,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6131,7 +6127,7 @@
         <v>15283004</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C53">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B53,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6146,7 +6142,7 @@
         <v>15282000</v>
       </c>
       <c r="B54" s="106" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C54">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B54,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6161,7 +6157,7 @@
         <v>5749031</v>
       </c>
       <c r="B55" s="106" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C55">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B55,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6173,7 +6169,7 @@
         <v>5749032</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B56,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6185,7 +6181,7 @@
         <v>2687</v>
       </c>
       <c r="B57" s="106" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C57">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B57,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6197,7 +6193,7 @@
         <v>2688</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B58,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6209,7 +6205,7 @@
         <v>3550</v>
       </c>
       <c r="B59" s="106" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C59">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B59,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6221,7 +6217,7 @@
         <v>3552</v>
       </c>
       <c r="B60" s="106" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C60">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B60,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6233,7 +6229,7 @@
         <v>12060019</v>
       </c>
       <c r="B61" s="106" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C61">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B61,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6245,7 +6241,7 @@
         <v>12060018</v>
       </c>
       <c r="B62" s="106" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B62,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6257,7 +6253,7 @@
         <v>17581002</v>
       </c>
       <c r="B63" s="106" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C63">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B63,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6269,7 +6265,7 @@
         <v>17581001</v>
       </c>
       <c r="B64" s="106" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C64">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B64,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6281,7 +6277,7 @@
         <v>2793109</v>
       </c>
       <c r="B65" s="106" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C65">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B65,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6293,7 +6289,7 @@
         <v>2793113</v>
       </c>
       <c r="B66" s="106" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C66">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B66,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6305,7 +6301,7 @@
         <v>1795</v>
       </c>
       <c r="B67" s="106" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C67">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B67,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6317,7 +6313,7 @@
         <v>1794</v>
       </c>
       <c r="B68" s="106" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B68,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6329,7 +6325,7 @@
         <v>35012</v>
       </c>
       <c r="B69" s="106" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C69">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B69,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6341,7 +6337,7 @@
         <v>2832056</v>
       </c>
       <c r="B70" s="106" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C70">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B70,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6353,7 +6349,7 @@
         <v>6755102</v>
       </c>
       <c r="B71" s="106" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C71">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B71,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6365,7 +6361,7 @@
         <v>2937128</v>
       </c>
       <c r="B72" s="106" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B72,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6380,7 +6376,7 @@
         <v>35105</v>
       </c>
       <c r="B73" s="106" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C73">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B73,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6392,7 +6388,7 @@
         <v>35016</v>
       </c>
       <c r="B74" s="106" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C74">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B74,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6404,7 +6400,7 @@
         <v>1219101</v>
       </c>
       <c r="B75" s="106" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C75">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B75,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6419,7 +6415,7 @@
         <v>111503</v>
       </c>
       <c r="B76" s="106" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C76">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B76,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6431,7 +6427,7 @@
         <v>111515</v>
       </c>
       <c r="B77" s="106" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C77">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B77,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6443,7 +6439,7 @@
         <v>111707</v>
       </c>
       <c r="B78" s="106" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C78">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B78,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6455,7 +6451,7 @@
         <v>111512</v>
       </c>
       <c r="B79" s="106" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C79">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B79,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6467,7 +6463,7 @@
         <v>2991176</v>
       </c>
       <c r="B80" s="106" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C80">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B80,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6479,7 +6475,7 @@
         <v>2991145</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C81">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B81,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6491,7 +6487,7 @@
         <v>2991164</v>
       </c>
       <c r="B82" s="106" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C82">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B82,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6503,7 +6499,7 @@
         <v>2991143</v>
       </c>
       <c r="B83" s="106" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C83">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B83,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6515,7 +6511,7 @@
         <v>5664156</v>
       </c>
       <c r="B84" s="106" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C84">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B84,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6530,7 +6526,7 @@
         <v>5664131</v>
       </c>
       <c r="B85" s="106" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C85">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B85,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6545,7 +6541,7 @@
         <v>5664156</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B86,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6555,12 +6551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.8">
+    <row r="87" spans="1:4" ht="16.899999999999999">
       <c r="A87" s="108">
         <v>5664156</v>
       </c>
       <c r="B87" s="109" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C87">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B87,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6575,7 +6571,7 @@
         <v>232527</v>
       </c>
       <c r="B88" s="106" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C88">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B88,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6587,7 +6583,7 @@
         <v>232769</v>
       </c>
       <c r="B89" s="106" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C89">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B89,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6599,7 +6595,7 @@
         <v>232521</v>
       </c>
       <c r="B90" s="106" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C90">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B90,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6611,7 +6607,7 @@
         <v>4396108</v>
       </c>
       <c r="B91" s="106" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B91,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6623,7 +6619,7 @@
         <v>3772078</v>
       </c>
       <c r="B92" s="106" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B92,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6635,7 +6631,7 @@
         <v>3601184</v>
       </c>
       <c r="B93" s="106" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B93,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6647,7 +6643,7 @@
         <v>3601182</v>
       </c>
       <c r="B94" s="106" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B94,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6659,7 +6655,7 @@
         <v>12487001</v>
       </c>
       <c r="B95" s="106" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B95,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6671,7 +6667,7 @@
         <v>3214019</v>
       </c>
       <c r="B96" s="106" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B96,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6683,7 +6679,7 @@
         <v>8768010</v>
       </c>
       <c r="B97" s="106" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B97,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6698,7 +6694,7 @@
         <v>8768006</v>
       </c>
       <c r="B98" s="106" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C98">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B98,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6713,7 +6709,7 @@
         <v>7070043</v>
       </c>
       <c r="B99" s="106" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C99">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B99,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6728,7 +6724,7 @@
         <v>7070036</v>
       </c>
       <c r="B100" s="106" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C100">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B100,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6743,7 +6739,7 @@
         <v>116239</v>
       </c>
       <c r="B101" s="106" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C101">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B101,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6758,7 +6754,7 @@
         <v>863113</v>
       </c>
       <c r="B102" s="106" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C102">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B102,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6770,7 +6766,7 @@
         <v>8530019</v>
       </c>
       <c r="B103" s="106" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C103">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B103,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6782,7 +6778,7 @@
         <v>10386006</v>
       </c>
       <c r="B104" s="106" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C104">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B104,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6794,7 +6790,7 @@
         <v>6780037</v>
       </c>
       <c r="B105" s="106" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C105">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B105,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6806,7 +6802,7 @@
         <v>15427000</v>
       </c>
       <c r="B106" s="106" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C106">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B106,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6821,7 +6817,7 @@
         <v>4335064</v>
       </c>
       <c r="B107" s="106" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C107">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B107,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6833,7 +6829,7 @@
         <v>8895003</v>
       </c>
       <c r="B108" s="106" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C108">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B108,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6845,7 +6841,7 @@
         <v>13522005</v>
       </c>
       <c r="B109" s="106" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C109">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B109,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6857,7 +6853,7 @@
         <v>7422106</v>
       </c>
       <c r="B110" s="106" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C110">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B110,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6869,7 +6865,7 @@
         <v>2342038</v>
       </c>
       <c r="B111" s="106" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C111">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B111,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6881,7 +6877,7 @@
         <v>7422108</v>
       </c>
       <c r="B112" s="106" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C112">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B112,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6893,7 +6889,7 @@
         <v>5792019</v>
       </c>
       <c r="B113" s="106" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C113">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B113,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6905,7 +6901,7 @@
         <v>7422107</v>
       </c>
       <c r="B114" s="106" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C114">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B114,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6917,7 +6913,7 @@
         <v>6755100</v>
       </c>
       <c r="B115" s="106" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C115">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B115,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6932,7 +6928,7 @@
         <v>2630100</v>
       </c>
       <c r="B116" s="106" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C116">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B116,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6947,7 +6943,7 @@
         <v>57203</v>
       </c>
       <c r="B117" s="106" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C117">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B117,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6962,7 +6958,7 @@
         <v>5099102</v>
       </c>
       <c r="B118" s="106" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C118">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B118,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6977,7 +6973,7 @@
         <v>3041025</v>
       </c>
       <c r="B119" s="106" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C119">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B119,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -6989,7 +6985,7 @@
         <v>731711</v>
       </c>
       <c r="B120" s="106" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C120">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B120,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7004,7 +7000,7 @@
         <v>4617027</v>
       </c>
       <c r="B121" s="106" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C121">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B121,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7016,7 +7012,7 @@
         <v>8271019</v>
       </c>
       <c r="B122" s="106" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C122">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B122,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7028,7 +7024,7 @@
         <v>15821000</v>
       </c>
       <c r="B123" s="106" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C123">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B123,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7040,7 +7036,7 @@
         <v>15822000</v>
       </c>
       <c r="B124" s="106" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C124">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B124,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7052,7 +7048,7 @@
         <v>5148038</v>
       </c>
       <c r="B125" s="106" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C125">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B125,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7064,7 +7060,7 @@
         <v>3557080</v>
       </c>
       <c r="B126" s="106" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C126">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B126,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7076,7 +7072,7 @@
         <v>3388076</v>
       </c>
       <c r="B127" s="106" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C127">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B127,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7091,7 +7087,7 @@
         <v>6819026</v>
       </c>
       <c r="B128" s="106" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C128">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B128,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7103,7 +7099,7 @@
         <v>14443001</v>
       </c>
       <c r="B129" s="106" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C129">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B129,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7115,7 +7111,7 @@
         <v>13300</v>
       </c>
       <c r="B130" s="106" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C130">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B130,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7127,7 +7123,7 @@
         <v>13314</v>
       </c>
       <c r="B131" s="106" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C131">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B131,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7139,7 +7135,7 @@
         <v>16637001</v>
       </c>
       <c r="B132" s="106" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C132">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B132,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7151,7 +7147,7 @@
         <v>5462012</v>
       </c>
       <c r="B133" s="106" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C133">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B133,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7163,7 +7159,7 @@
         <v>1242414</v>
       </c>
       <c r="B134" s="106" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C134">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B134,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7175,7 +7171,7 @@
         <v>1242434</v>
       </c>
       <c r="B135" s="106" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C135">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B135,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7187,7 +7183,7 @@
         <v>1242436</v>
       </c>
       <c r="B136" s="106" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C136">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B136,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7199,7 +7195,7 @@
         <v>1242437</v>
       </c>
       <c r="B137" s="106" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C137">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B137,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7211,7 +7207,7 @@
         <v>1242410</v>
       </c>
       <c r="B138" s="106" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C138">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B138,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7223,7 +7219,7 @@
         <v>3439324</v>
       </c>
       <c r="B139" s="106" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C139">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B139,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7235,7 +7231,7 @@
         <v>3439210</v>
       </c>
       <c r="B140" s="106" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C140">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B140,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7247,7 +7243,7 @@
         <v>4887030</v>
       </c>
       <c r="B141" s="106" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C141">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B141,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7259,7 +7255,7 @@
         <v>407938</v>
       </c>
       <c r="B142" s="106" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C142">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B142,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7271,7 +7267,7 @@
         <v>407952</v>
       </c>
       <c r="B143" s="106" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C143">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B143,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7283,7 +7279,7 @@
         <v>407933</v>
       </c>
       <c r="B144" s="106" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C144">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B144,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7295,7 +7291,7 @@
         <v>407934</v>
       </c>
       <c r="B145" s="106" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C145">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B145,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7307,7 +7303,7 @@
         <v>407936</v>
       </c>
       <c r="B146" s="106" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C146">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B146,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7319,7 +7315,7 @@
         <v>407937</v>
       </c>
       <c r="B147" s="106" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C147">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B147,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7331,7 +7327,7 @@
         <v>7350</v>
       </c>
       <c r="B148" s="106" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C148">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B148,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7343,7 +7339,7 @@
         <v>7362</v>
       </c>
       <c r="B149" t="s">
-        <v>332</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -7351,7 +7347,7 @@
         <v>7350</v>
       </c>
       <c r="B150" t="s">
-        <v>332</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -7359,7 +7355,7 @@
         <v>7347</v>
       </c>
       <c r="B151" s="106" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C151">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B151,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7371,7 +7367,7 @@
         <v>7221</v>
       </c>
       <c r="B152" s="106" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C152">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B152,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7383,7 +7379,7 @@
         <v>7227</v>
       </c>
       <c r="B153" s="106" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C153">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B153,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7395,7 +7391,7 @@
         <v>1668110</v>
       </c>
       <c r="B154" s="106" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C154">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B154,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7407,7 +7403,7 @@
         <v>1668118</v>
       </c>
       <c r="B155" s="106" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C155">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B155,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7419,7 +7415,7 @@
         <v>1668109</v>
       </c>
       <c r="B156" s="106" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C156">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B156,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7431,7 +7427,7 @@
         <v>15443004</v>
       </c>
       <c r="B157" s="106" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C157">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B157,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7443,7 +7439,7 @@
         <v>15443005</v>
       </c>
       <c r="B158" s="106" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C158">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B158,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7455,7 +7451,7 @@
         <v>3454054</v>
       </c>
       <c r="B159" s="106" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C159">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B159,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7470,7 +7466,7 @@
         <v>718007</v>
       </c>
       <c r="B160" s="106" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C160">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B160,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7485,7 +7481,7 @@
         <v>12254186</v>
       </c>
       <c r="B161" s="106" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C161">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B161,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7497,7 +7493,7 @@
         <v>12254187</v>
       </c>
       <c r="B162" s="106" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C162">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B162,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7509,7 +7505,7 @@
         <v>12254195</v>
       </c>
       <c r="B163" s="106" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C163">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B163,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7521,7 +7517,7 @@
         <v>34105</v>
       </c>
       <c r="B164" s="106" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C164">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B164,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7536,7 +7532,7 @@
         <v>34106</v>
       </c>
       <c r="B165" s="106" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C165">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B165,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7551,7 +7547,7 @@
         <v>295431</v>
       </c>
       <c r="B166" s="106" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C166">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B166,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7563,7 +7559,7 @@
         <v>295434</v>
       </c>
       <c r="B167" s="106" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C167">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B167,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7575,7 +7571,7 @@
         <v>295710</v>
       </c>
       <c r="B168" s="106" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C168">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B168,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7587,7 +7583,7 @@
         <v>12254200</v>
       </c>
       <c r="B169" s="106" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C169">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B169,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7599,7 +7595,7 @@
         <v>360554</v>
       </c>
       <c r="B170" s="106" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C170">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B170,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7611,7 +7607,7 @@
         <v>360389</v>
       </c>
       <c r="B171" s="106" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C171">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B171,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7623,7 +7619,7 @@
         <v>360395</v>
       </c>
       <c r="B172" s="106" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C172">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B172,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7635,7 +7631,7 @@
         <v>1205349</v>
       </c>
       <c r="B173" s="106" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C173">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B173,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7647,7 +7643,7 @@
         <v>1205350</v>
       </c>
       <c r="B174" s="106" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C174">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B174,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7659,7 +7655,7 @@
         <v>311134</v>
       </c>
       <c r="B175" s="106" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C175">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B175,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7671,7 +7667,7 @@
         <v>311133</v>
       </c>
       <c r="B176" s="106" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C176">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B176,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7683,7 +7679,7 @@
         <v>325119</v>
       </c>
       <c r="B177" s="106" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C177">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B177,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7695,7 +7691,7 @@
         <v>1205318</v>
       </c>
       <c r="B178" s="106" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C178">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B178,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7707,7 +7703,7 @@
         <v>1205317</v>
       </c>
       <c r="B179" s="106" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C179">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B179,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7719,7 +7715,7 @@
         <v>1205316</v>
       </c>
       <c r="B180" s="106" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C180">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B180,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7731,7 +7727,7 @@
         <v>325104</v>
       </c>
       <c r="B181" s="106" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C181">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B181,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7743,7 +7739,7 @@
         <v>7224046</v>
       </c>
       <c r="B182" s="106" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C182">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B182,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7755,7 +7751,7 @@
         <v>7224051</v>
       </c>
       <c r="B183" s="106" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C183">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B183,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7767,7 +7763,7 @@
         <v>360386</v>
       </c>
       <c r="B184" s="106" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C184">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B184,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7779,7 +7775,7 @@
         <v>360401</v>
       </c>
       <c r="B185" s="106" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C185">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B185,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7791,7 +7787,7 @@
         <v>360589</v>
       </c>
       <c r="B186" s="106" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C186">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B186,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7803,7 +7799,7 @@
         <v>360602</v>
       </c>
       <c r="B187" s="106" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C187">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B187,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7815,7 +7811,7 @@
         <v>360578</v>
       </c>
       <c r="B188" s="106" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C188">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B188,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7827,7 +7823,7 @@
         <v>360563</v>
       </c>
       <c r="B189" s="106" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C189">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B189,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7839,7 +7835,7 @@
         <v>360599</v>
       </c>
       <c r="B190" s="106" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C190">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B190,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7851,7 +7847,7 @@
         <v>360577</v>
       </c>
       <c r="B191" s="106" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C191">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B191,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7863,7 +7859,7 @@
         <v>360565</v>
       </c>
       <c r="B192" s="106" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C192">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B192,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7875,7 +7871,7 @@
         <v>268299</v>
       </c>
       <c r="B193" s="106" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C193">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B193,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7887,7 +7883,7 @@
         <v>268302</v>
       </c>
       <c r="B194" s="106" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C194">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B194,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7899,7 +7895,7 @@
         <v>3157079</v>
       </c>
       <c r="B195" s="106" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C195">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B195,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7911,7 +7907,7 @@
         <v>5768121</v>
       </c>
       <c r="B196" s="106" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C196">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B196,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7923,7 +7919,7 @@
         <v>5768123</v>
       </c>
       <c r="B197" s="106" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C197">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B197,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7935,7 +7931,7 @@
         <v>325113</v>
       </c>
       <c r="B198" s="106" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C198">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B198,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7947,7 +7943,7 @@
         <v>325114</v>
       </c>
       <c r="B199" s="106" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C199">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B199,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7959,7 +7955,7 @@
         <v>312028</v>
       </c>
       <c r="B200" s="106" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C200">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B200,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7971,7 +7967,7 @@
         <v>296812</v>
       </c>
       <c r="B201" s="106" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C201">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B201,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7983,7 +7979,7 @@
         <v>360248</v>
       </c>
       <c r="B202" s="106" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C202">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B202,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -7995,7 +7991,7 @@
         <v>1007221</v>
       </c>
       <c r="B203" s="106" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C203">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B203,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8007,7 +8003,7 @@
         <v>1007180</v>
       </c>
       <c r="B204" s="106" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C204">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B204,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8019,7 +8015,7 @@
         <v>411007</v>
       </c>
       <c r="B205" s="106" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C205">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B205,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8034,7 +8030,7 @@
         <v>44090</v>
       </c>
       <c r="B206" s="106" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C206">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B206,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8046,7 +8042,7 @@
         <v>29195</v>
       </c>
       <c r="B207" s="106" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C207">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B207,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8058,7 +8054,7 @@
         <v>43015</v>
       </c>
       <c r="B208" s="106" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C208">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B208,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8070,7 +8066,7 @@
         <v>3496098</v>
       </c>
       <c r="B209" s="106" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C209">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B209,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8082,7 +8078,7 @@
         <v>5905055</v>
       </c>
       <c r="B210" s="106" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C210">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B210,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8097,7 +8093,7 @@
         <v>555087</v>
       </c>
       <c r="B211" s="106" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C211">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B211,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8109,7 +8105,7 @@
         <v>47288</v>
       </c>
       <c r="B212" s="106" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C212">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B212,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8121,7 +8117,7 @@
         <v>47328</v>
       </c>
       <c r="B213" s="106" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C213">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B213,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8133,7 +8129,7 @@
         <v>49108</v>
       </c>
       <c r="B214" s="106" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C214">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B214,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8145,7 +8141,7 @@
         <v>3096009</v>
       </c>
       <c r="B215" s="106" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C215">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B215,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8157,7 +8153,7 @@
         <v>14760000</v>
       </c>
       <c r="B216" s="106" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C216">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B216,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8169,7 +8165,7 @@
         <v>78051</v>
       </c>
       <c r="B217" s="106" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C217">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B217,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8181,7 +8177,7 @@
         <v>403060</v>
       </c>
       <c r="B218" s="106" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C218">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B218,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8193,7 +8189,7 @@
         <v>406101</v>
       </c>
       <c r="B219" s="106" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C219">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B219,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8205,7 +8201,7 @@
         <v>17462043</v>
       </c>
       <c r="B220" s="106" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C220">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B220,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8220,7 +8216,7 @@
         <v>155785</v>
       </c>
       <c r="B221" s="106" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C221">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B221,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8235,7 +8231,7 @@
         <v>17462031</v>
       </c>
       <c r="B222" s="106" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C222">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B222,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8250,7 +8246,7 @@
         <v>155617</v>
       </c>
       <c r="B223" s="106" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C223">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B223,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8265,7 +8261,7 @@
         <v>155620</v>
       </c>
       <c r="B224" s="106" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C224">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B224,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8280,7 +8276,7 @@
         <v>4569132</v>
       </c>
       <c r="B225" s="106" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C225">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B225,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8292,7 +8288,7 @@
         <v>17398000</v>
       </c>
       <c r="B226" s="106" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C226">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B226,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8304,7 +8300,7 @@
         <v>15265000</v>
       </c>
       <c r="B227" s="106" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C227">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B227,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8316,7 +8312,7 @@
         <v>4569140</v>
       </c>
       <c r="B228" s="106" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C228">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B228,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8328,7 +8324,7 @@
         <v>7333512</v>
       </c>
       <c r="B229" s="106" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C229">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B229,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8343,7 +8339,7 @@
         <v>7333622</v>
       </c>
       <c r="B230" s="106" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C230">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B230,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8358,7 +8354,7 @@
         <v>7333460</v>
       </c>
       <c r="B231" s="106" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C231">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B231,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8373,7 +8369,7 @@
         <v>7333459</v>
       </c>
       <c r="B232" s="106" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C232">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B232,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8388,7 +8384,7 @@
         <v>821973</v>
       </c>
       <c r="B233" s="106" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C233">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B233,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8400,7 +8396,7 @@
         <v>821253</v>
       </c>
       <c r="B234" s="106" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C234">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B234,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8412,7 +8408,7 @@
         <v>821974</v>
       </c>
       <c r="B235" s="106" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C235">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B235,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8424,7 +8420,7 @@
         <v>821212</v>
       </c>
       <c r="B236" s="106" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C236">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B236,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8436,7 +8432,7 @@
         <v>821238</v>
       </c>
       <c r="B237" s="106" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C237">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B237,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8448,7 +8444,7 @@
         <v>821236</v>
       </c>
       <c r="B238" s="106" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C238">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B238,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8460,7 +8456,7 @@
         <v>821916</v>
       </c>
       <c r="B239" s="106" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C239">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B239,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8472,7 +8468,7 @@
         <v>821121</v>
       </c>
       <c r="B240" s="106" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C240">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B240,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8484,7 +8480,7 @@
         <v>821915</v>
       </c>
       <c r="B241" s="106" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C241">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B241,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8496,7 +8492,7 @@
         <v>4574024</v>
       </c>
       <c r="B242" s="106" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C242">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B242,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8508,7 +8504,7 @@
         <v>4574026</v>
       </c>
       <c r="B243" s="106" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C243">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B243,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8520,7 +8516,7 @@
         <v>4574021</v>
       </c>
       <c r="B244" s="106" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C244">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B244,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8532,7 +8528,7 @@
         <v>4574025</v>
       </c>
       <c r="B245" s="106" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C245">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B245,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8544,7 +8540,7 @@
         <v>7314069</v>
       </c>
       <c r="B246" s="106" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C246">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B246,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8559,7 +8555,7 @@
         <v>125104</v>
       </c>
       <c r="B247" s="106" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C247">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B247,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8574,7 +8570,7 @@
         <v>18408001</v>
       </c>
       <c r="B248" s="106" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C248">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B248,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8589,7 +8585,7 @@
         <v>7314062</v>
       </c>
       <c r="B249" s="106" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C249">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B249,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8604,7 +8600,7 @@
         <v>7314072</v>
       </c>
       <c r="B250" s="106" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C250">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B250,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8619,7 +8615,7 @@
         <v>15179001</v>
       </c>
       <c r="B251" s="106" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C251">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B251,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8634,7 +8630,7 @@
         <v>232559</v>
       </c>
       <c r="B252" s="106" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C252">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B252,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8646,7 +8642,7 @@
         <v>111469</v>
       </c>
       <c r="B253" s="106" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C253">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B253,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8658,7 +8654,7 @@
         <v>2991117</v>
       </c>
       <c r="B254" s="106" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C254">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B254,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8670,7 +8666,7 @@
         <v>5479111</v>
       </c>
       <c r="B255" s="106" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C255">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B255,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8685,7 +8681,7 @@
         <v>5479117</v>
       </c>
       <c r="B256" s="106" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C256">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B256,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8700,7 +8696,7 @@
         <v>5479116</v>
       </c>
       <c r="B257" s="106" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C257">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B257,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8715,7 +8711,7 @@
         <v>5636022</v>
       </c>
       <c r="B258" s="106" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C258">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B258,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8730,7 +8726,7 @@
         <v>5636025</v>
       </c>
       <c r="B259" s="106" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C259">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B259,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8745,7 +8741,7 @@
         <v>261243</v>
       </c>
       <c r="B260" s="106" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C260">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B260,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8760,7 +8756,7 @@
         <v>261262</v>
       </c>
       <c r="B261" s="106" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C261">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B261,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8775,7 +8771,7 @@
         <v>1960105</v>
       </c>
       <c r="B262" s="106" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C262">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B262,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8790,7 +8786,7 @@
         <v>867012</v>
       </c>
       <c r="B263" s="106" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C263">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B263,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8802,7 +8798,7 @@
         <v>8177</v>
       </c>
       <c r="B264" s="106" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C264">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B264,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8814,7 +8810,7 @@
         <v>8132</v>
       </c>
       <c r="B265" s="106" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C265">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B265,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8826,7 +8822,7 @@
         <v>5906039</v>
       </c>
       <c r="B266" s="106" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C266">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B266,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8838,7 +8834,7 @@
         <v>15202000</v>
       </c>
       <c r="B267" s="106" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C267">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B267,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8850,7 +8846,7 @@
         <v>7422051</v>
       </c>
       <c r="B268" s="106" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C268">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B268,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8862,7 +8858,7 @@
         <v>10778000</v>
       </c>
       <c r="B269" s="106" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C269">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B269,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8874,7 +8870,7 @@
         <v>15205000</v>
       </c>
       <c r="B270" s="106" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C270">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B270,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8886,7 +8882,7 @@
         <v>4357021</v>
       </c>
       <c r="B271" s="106" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C271">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B271,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8898,7 +8894,7 @@
         <v>6008069</v>
       </c>
       <c r="B272" s="106" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C272">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B272,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8910,7 +8906,7 @@
         <v>4801</v>
       </c>
       <c r="B273" s="106" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C273">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B273,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8922,7 +8918,7 @@
         <v>4525</v>
       </c>
       <c r="B274" s="106" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C274">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B274,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8934,7 +8930,7 @@
         <v>9991101</v>
       </c>
       <c r="B275" s="106" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C275">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B275,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8946,7 +8942,7 @@
         <v>4194</v>
       </c>
       <c r="B276" s="106" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C276">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B276,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8958,7 +8954,7 @@
         <v>4188</v>
       </c>
       <c r="B277" s="106" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C277">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B277,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8970,7 +8966,7 @@
         <v>9991103</v>
       </c>
       <c r="B278" s="106" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C278">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B278,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8982,7 +8978,7 @@
         <v>70177</v>
       </c>
       <c r="B279" s="106" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C279">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B279,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -8994,7 +8990,7 @@
         <v>70120</v>
       </c>
       <c r="B280" s="106" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C280">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B280,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9006,7 +9002,7 @@
         <v>7076004</v>
       </c>
       <c r="B281" s="106" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C281">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B281,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9018,7 +9014,7 @@
         <v>5358039</v>
       </c>
       <c r="B282" s="106" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C282">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B282,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9030,7 +9026,7 @@
         <v>1809118</v>
       </c>
       <c r="B283" s="106" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C283">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B283,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9042,7 +9038,7 @@
         <v>132080</v>
       </c>
       <c r="B284" s="106" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C284">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B284,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9054,7 +9050,7 @@
         <v>5950013</v>
       </c>
       <c r="B285" s="106" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C285">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B285,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9066,7 +9062,7 @@
         <v>132162</v>
       </c>
       <c r="B286" s="106" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C286">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B286,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9078,7 +9074,7 @@
         <v>2679059</v>
       </c>
       <c r="B287" s="106" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C287">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B287,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9090,7 +9086,7 @@
         <v>45060</v>
       </c>
       <c r="B288" s="106" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C288">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B288,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9102,7 +9098,7 @@
         <v>10181037</v>
       </c>
       <c r="B289" s="106" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C289">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B289,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9114,7 +9110,7 @@
         <v>10181042</v>
       </c>
       <c r="B290" s="106" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C290">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B290,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9126,7 +9122,7 @@
         <v>10181027</v>
       </c>
       <c r="B291" s="106" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C291">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B291,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9138,7 +9134,7 @@
         <v>10181039</v>
       </c>
       <c r="B292" s="106" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C292">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B292,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9150,7 +9146,7 @@
         <v>264102</v>
       </c>
       <c r="B293" s="106" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C293">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B293,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9162,7 +9158,7 @@
         <v>264103</v>
       </c>
       <c r="B294" s="106" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C294">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B294,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9174,7 +9170,7 @@
         <v>4325004</v>
       </c>
       <c r="B295" s="106" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C295">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B295,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9189,7 +9185,7 @@
         <v>4325000</v>
       </c>
       <c r="B296" s="106" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C296">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B296,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9204,7 +9200,7 @@
         <v>117411</v>
       </c>
       <c r="B297" s="106" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C297">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B297,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9219,7 +9215,7 @@
         <v>4340029</v>
       </c>
       <c r="B298" s="106" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C298">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B298,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9231,7 +9227,7 @@
         <v>4340032</v>
       </c>
       <c r="B299" s="106" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C299">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B299,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9243,7 +9239,7 @@
         <v>4340018</v>
       </c>
       <c r="B300" s="106" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C300">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B300,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9255,7 +9251,7 @@
         <v>233223</v>
       </c>
       <c r="B301" s="106" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C301">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B301,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9267,7 +9263,7 @@
         <v>233209</v>
       </c>
       <c r="B302" s="106" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C302">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B302,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9279,7 +9275,7 @@
         <v>117407</v>
       </c>
       <c r="B303" s="106" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C303">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B303,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9294,7 +9290,7 @@
         <v>117424</v>
       </c>
       <c r="B304" s="106" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C304">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B304,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9309,7 +9305,7 @@
         <v>117412</v>
       </c>
       <c r="B305" s="106" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C305">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B305,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9324,7 +9320,7 @@
         <v>117363</v>
       </c>
       <c r="B306" s="106" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C306">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B306,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9339,7 +9335,7 @@
         <v>116204</v>
       </c>
       <c r="B307" s="106" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C307">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B307,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9354,7 +9350,7 @@
         <v>116240</v>
       </c>
       <c r="B308" s="106" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C308">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B308,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9369,7 +9365,7 @@
         <v>116210</v>
       </c>
       <c r="B309" s="106" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C309">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B309,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9384,7 +9380,7 @@
         <v>3270033</v>
       </c>
       <c r="B310" s="106" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C310">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B310,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9396,7 +9392,7 @@
         <v>2254027</v>
       </c>
       <c r="B311" s="106" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C311">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B311,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9408,7 +9404,7 @@
         <v>2087290</v>
       </c>
       <c r="B312" s="106" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C312">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B312,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9420,7 +9416,7 @@
         <v>487012</v>
       </c>
       <c r="B313" s="106" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C313">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B313,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9432,7 +9428,7 @@
         <v>14015001</v>
       </c>
       <c r="B314" s="106" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C314">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B314,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9444,7 +9440,7 @@
         <v>14015000</v>
       </c>
       <c r="B315" s="106" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C315">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B315,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9456,7 +9452,7 @@
         <v>6477075</v>
       </c>
       <c r="B316" s="106" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C316">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B316,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9468,7 +9464,7 @@
         <v>7561078</v>
       </c>
       <c r="B317" s="106" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C317">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B317,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9480,7 +9476,7 @@
         <v>2601109</v>
       </c>
       <c r="B318" s="106" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C318">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B318,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9492,7 +9488,7 @@
         <v>12013006</v>
       </c>
       <c r="B319" s="106" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C319">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B319,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9504,7 +9500,7 @@
         <v>5719012</v>
       </c>
       <c r="B320" s="106" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C320">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B320,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9516,7 +9512,7 @@
         <v>13853001</v>
       </c>
       <c r="B321" s="106" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C321">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B321,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9528,7 +9524,7 @@
         <v>8482054</v>
       </c>
       <c r="B322" s="106" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C322">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B322,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9540,7 +9536,7 @@
         <v>16479001</v>
       </c>
       <c r="B323" s="106" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C323">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B323,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9552,7 +9548,7 @@
         <v>12495004</v>
       </c>
       <c r="B324" s="106" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C324">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B324,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9564,7 +9560,7 @@
         <v>8482053</v>
       </c>
       <c r="B325" s="106" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C325">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B325,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9576,7 +9572,7 @@
         <v>14076</v>
       </c>
       <c r="B326" s="106" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C326">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B326,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9588,7 +9584,7 @@
         <v>14052</v>
       </c>
       <c r="B327" s="106" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C327">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B327,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9600,7 +9596,7 @@
         <v>14029</v>
       </c>
       <c r="B328" s="106" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C328">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B328,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9612,7 +9608,7 @@
         <v>193483</v>
       </c>
       <c r="B329" s="106" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C329">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B329,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9624,7 +9620,7 @@
         <v>3237086</v>
       </c>
       <c r="B330" s="106" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C330">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B330,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9636,7 +9632,7 @@
         <v>3237176</v>
       </c>
       <c r="B331" s="106" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C331">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B331,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9648,7 +9644,7 @@
         <v>3237083</v>
       </c>
       <c r="B332" s="106" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C332">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B332,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9660,7 +9656,7 @@
         <v>3237173</v>
       </c>
       <c r="B333" s="106" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C333">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B333,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9672,7 +9668,7 @@
         <v>6316104</v>
       </c>
       <c r="B334" s="106" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C334">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B334,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9684,7 +9680,7 @@
         <v>76035</v>
       </c>
       <c r="B335" s="106" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C335">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B335,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9696,7 +9692,7 @@
         <v>3858105</v>
       </c>
       <c r="B336" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C336">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B336,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9708,7 +9704,7 @@
         <v>394015</v>
       </c>
       <c r="B337" s="106" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C337">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B337,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9720,7 +9716,7 @@
         <v>364104</v>
       </c>
       <c r="B338" s="106" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C338">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B338,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9735,7 +9731,7 @@
         <v>364106</v>
       </c>
       <c r="B339" s="106" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C339">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B339,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9750,7 +9746,7 @@
         <v>8797010</v>
       </c>
       <c r="B340" s="106" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C340">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B340,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9765,7 +9761,7 @@
         <v>1214100</v>
       </c>
       <c r="B341" s="106" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C341">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B341,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9777,7 +9773,7 @@
         <v>1214101</v>
       </c>
       <c r="B342" s="106" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C342">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B342,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9789,7 +9785,7 @@
         <v>1131018</v>
       </c>
       <c r="B343" s="106" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C343">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B343,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9801,7 +9797,7 @@
         <v>12291</v>
       </c>
       <c r="B344" s="106" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C344">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B344,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9813,7 +9809,7 @@
         <v>4949018</v>
       </c>
       <c r="B345" s="106" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C345">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B345,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9828,7 +9824,7 @@
         <v>670103</v>
       </c>
       <c r="B346" s="106" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C346">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B346,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9843,7 +9839,7 @@
         <v>670105</v>
       </c>
       <c r="B347" s="106" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C347">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B347,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9858,7 +9854,7 @@
         <v>437278</v>
       </c>
       <c r="B348" s="106" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C348">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B348,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9873,7 +9869,7 @@
         <v>437279</v>
       </c>
       <c r="B349" s="106" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C349">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B349,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9888,7 +9884,7 @@
         <v>1144066</v>
       </c>
       <c r="B350" s="106" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C350">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B350,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9900,7 +9896,7 @@
         <v>1144075</v>
       </c>
       <c r="B351" s="106" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C351">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B351,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9912,7 +9908,7 @@
         <v>1144072</v>
       </c>
       <c r="B352" s="106" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C352">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B352,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9924,7 +9920,7 @@
         <v>1144069</v>
       </c>
       <c r="B353" s="106" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C353">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B353,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9936,7 +9932,7 @@
         <v>1144054</v>
       </c>
       <c r="B354" s="106" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C354">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B354,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9948,7 +9944,7 @@
         <v>8163048</v>
       </c>
       <c r="B355" s="106" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C355">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B355,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9963,7 +9959,7 @@
         <v>8163054</v>
       </c>
       <c r="B356" s="106" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C356">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B356,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9978,7 +9974,7 @@
         <v>8163055</v>
       </c>
       <c r="B357" s="106" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C357">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B357,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -9993,7 +9989,7 @@
         <v>18486</v>
       </c>
       <c r="B358" s="106" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C358">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B358,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10005,7 +10001,7 @@
         <v>18559</v>
       </c>
       <c r="B359" s="106" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C359">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B359,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10017,7 +10013,7 @@
         <v>18536</v>
       </c>
       <c r="B360" s="106" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C360">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B360,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10029,7 +10025,7 @@
         <v>18450</v>
       </c>
       <c r="B361" s="106" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C361">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B361,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10041,7 +10037,7 @@
         <v>5122104</v>
       </c>
       <c r="B362" s="106" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C362">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B362,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10053,7 +10049,7 @@
         <v>28290</v>
       </c>
       <c r="B363" s="106" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C363">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B363,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10065,7 +10061,7 @@
         <v>5122105</v>
       </c>
       <c r="B364" s="106" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C364">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B364,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10077,7 +10073,7 @@
         <v>56012</v>
       </c>
       <c r="B365" s="106" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C365">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B365,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10092,7 +10088,7 @@
         <v>4183105</v>
       </c>
       <c r="B366" s="106" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C366">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B366,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10104,7 +10100,7 @@
         <v>28286</v>
       </c>
       <c r="B367" s="106" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C367">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B367,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10116,7 +10112,7 @@
         <v>28081</v>
       </c>
       <c r="B368" s="106" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C368">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B368,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10128,7 +10124,7 @@
         <v>6473010</v>
       </c>
       <c r="B369" s="106" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C369">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B369,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10140,7 +10136,7 @@
         <v>63111</v>
       </c>
       <c r="B370" s="106" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C370">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B370,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10152,7 +10148,7 @@
         <v>5819087</v>
       </c>
       <c r="B371" s="106" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C371">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B371,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10164,7 +10160,7 @@
         <v>134146</v>
       </c>
       <c r="B372" s="106" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C372">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B372,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10176,7 +10172,7 @@
         <v>134795</v>
       </c>
       <c r="B373" s="106" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C373">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B373,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10188,7 +10184,7 @@
         <v>253513</v>
       </c>
       <c r="B374" s="106" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C374">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B374,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10203,7 +10199,7 @@
         <v>253518</v>
       </c>
       <c r="B375" s="106" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C375">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B375,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10218,7 +10214,7 @@
         <v>253511</v>
       </c>
       <c r="B376" s="106" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C376">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B376,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10233,7 +10229,7 @@
         <v>7244022</v>
       </c>
       <c r="B377" s="106" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C377">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B377,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10245,7 +10241,7 @@
         <v>55371</v>
       </c>
       <c r="B378" s="106" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C378">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B378,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10257,7 +10253,7 @@
         <v>55372</v>
       </c>
       <c r="B379" s="106" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C379">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B379,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10269,7 +10265,7 @@
         <v>55333</v>
       </c>
       <c r="B380" s="106" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C380">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B380,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10281,7 +10277,7 @@
         <v>7422111</v>
       </c>
       <c r="B381" s="106" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C381">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B381,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10293,7 +10289,7 @@
         <v>7422054</v>
       </c>
       <c r="B382" s="106" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C382">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B382,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10305,7 +10301,7 @@
         <v>705046</v>
       </c>
       <c r="B383" s="106" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C383">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B383,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10317,7 +10313,7 @@
         <v>4180175</v>
       </c>
       <c r="B384" s="106" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C384">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B384,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10329,7 +10325,7 @@
         <v>8092003</v>
       </c>
       <c r="B385" s="106" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C385">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B385,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10341,7 +10337,7 @@
         <v>7200099</v>
       </c>
       <c r="B386" s="106" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C386">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B386,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10353,7 +10349,7 @@
         <v>10015</v>
       </c>
       <c r="B387" s="106" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C387">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B387,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10365,7 +10361,7 @@
         <v>15328002</v>
       </c>
       <c r="B388" s="106" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C388">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B388,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10377,7 +10373,7 @@
         <v>395072</v>
       </c>
       <c r="B389" s="106" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C389">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B389,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10389,7 +10385,7 @@
         <v>26183</v>
       </c>
       <c r="B390" s="106" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C390">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B390,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10401,7 +10397,7 @@
         <v>408308</v>
       </c>
       <c r="B391" s="106" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C391">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B391,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10413,7 +10409,7 @@
         <v>408307</v>
       </c>
       <c r="B392" s="106" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C392">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B392,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10425,7 +10421,7 @@
         <v>18452000</v>
       </c>
       <c r="B393" s="106" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C393">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B393,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10437,7 +10433,7 @@
         <v>11012059</v>
       </c>
       <c r="B394" s="106" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C394">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B394,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10449,7 +10445,7 @@
         <v>18474000</v>
       </c>
       <c r="B395" s="106" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C395">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B395,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10461,7 +10457,7 @@
         <v>408287</v>
       </c>
       <c r="B396" s="106" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C396">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B396,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10473,7 +10469,7 @@
         <v>16045003</v>
       </c>
       <c r="B397" s="106" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C397">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B397,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10485,7 +10481,7 @@
         <v>410138</v>
       </c>
       <c r="B398" s="106" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C398">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B398,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10497,7 +10493,7 @@
         <v>409256</v>
       </c>
       <c r="B399" s="106" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C399">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B399,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10509,7 +10505,7 @@
         <v>409259</v>
       </c>
       <c r="B400" s="106" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C400">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B400,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10521,7 +10517,7 @@
         <v>409244</v>
       </c>
       <c r="B401" s="106" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C401">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B401,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10533,7 +10529,7 @@
         <v>4180203</v>
       </c>
       <c r="B402" s="106" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C402">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B402,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10545,7 +10541,7 @@
         <v>8103000</v>
       </c>
       <c r="B403" s="106" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C403">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B403,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10557,7 +10553,7 @@
         <v>9320</v>
       </c>
       <c r="B404" s="106" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C404">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B404,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10569,7 +10565,7 @@
         <v>9321</v>
       </c>
       <c r="B405" s="106" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C405">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B405,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10581,7 +10577,7 @@
         <v>9027</v>
       </c>
       <c r="B406" s="106" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C406">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B406,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10593,7 +10589,7 @@
         <v>16461000</v>
       </c>
       <c r="B407" s="106" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C407">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B407,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10605,7 +10601,7 @@
         <v>3808082</v>
       </c>
       <c r="B408" s="106" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C408">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B408,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10617,7 +10613,7 @@
         <v>5665081</v>
       </c>
       <c r="B409" s="106" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C409">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B409,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10629,7 +10625,7 @@
         <v>6408000</v>
       </c>
       <c r="B410" s="106" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C410">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B410,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10641,7 +10637,7 @@
         <v>11375</v>
       </c>
       <c r="B411" s="106" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C411">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B411,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10653,7 +10649,7 @@
         <v>11378</v>
       </c>
       <c r="B412" s="106" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C412">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B412,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10665,7 +10661,7 @@
         <v>11363</v>
       </c>
       <c r="B413" s="106" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C413">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B413,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10677,7 +10673,7 @@
         <v>11267</v>
       </c>
       <c r="B414" s="106" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C414">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B414,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10689,7 +10685,7 @@
         <v>2589509</v>
       </c>
       <c r="B415" s="106" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C415">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B415,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10701,7 +10697,7 @@
         <v>3270027</v>
       </c>
       <c r="B416" s="106" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C416">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B416,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10713,7 +10709,7 @@
         <v>2087219</v>
       </c>
       <c r="B417" s="106" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C417">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B417,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10725,7 +10721,7 @@
         <v>223542</v>
       </c>
       <c r="B418" s="106" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C418">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B418,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10740,7 +10736,7 @@
         <v>223526</v>
       </c>
       <c r="B419" s="106" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C419">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B419,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10755,7 +10751,7 @@
         <v>12632</v>
       </c>
       <c r="B420" s="106" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C420">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B420,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10767,7 +10763,7 @@
         <v>12635</v>
       </c>
       <c r="B421" s="106" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C421">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B421,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10779,7 +10775,7 @@
         <v>12634</v>
       </c>
       <c r="B422" s="106" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C422">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B422,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10791,7 +10787,7 @@
         <v>12622</v>
       </c>
       <c r="B423" s="106" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C423">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B423,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10803,7 +10799,7 @@
         <v>4331009</v>
       </c>
       <c r="B424" s="106" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C424">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B424,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10815,7 +10811,7 @@
         <v>4331025</v>
       </c>
       <c r="B425" s="106" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C425">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B425,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10827,7 +10823,7 @@
         <v>42269</v>
       </c>
       <c r="B426" s="106" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C426">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B426,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10839,7 +10835,7 @@
         <v>13222006</v>
       </c>
       <c r="B427" s="106" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C427">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B427,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10851,7 +10847,7 @@
         <v>33037</v>
       </c>
       <c r="B428" s="106" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C428">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B428,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10863,7 +10859,7 @@
         <v>19067</v>
       </c>
       <c r="B429" s="106" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C429">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B429,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10875,7 +10871,7 @@
         <v>42274</v>
       </c>
       <c r="B430" s="106" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C430">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B430,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10887,7 +10883,7 @@
         <v>21079</v>
       </c>
       <c r="B431" s="106" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C431">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B431,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10899,7 +10895,7 @@
         <v>168399</v>
       </c>
       <c r="B432" s="106" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C432">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B432,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10911,7 +10907,7 @@
         <v>8271016</v>
       </c>
       <c r="B433" s="106" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C433">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B433,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10923,7 +10919,7 @@
         <v>61168</v>
       </c>
       <c r="B434" s="106" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C434">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B434,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10935,7 +10931,7 @@
         <v>61046</v>
       </c>
       <c r="B435" s="106" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C435">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B435,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10947,7 +10943,7 @@
         <v>62192</v>
       </c>
       <c r="B436" s="106" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C436">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B436,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10959,7 +10955,7 @@
         <v>62014</v>
       </c>
       <c r="B437" s="106" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C437">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B437,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10971,7 +10967,7 @@
         <v>60143</v>
       </c>
       <c r="B438" s="106" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C438">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B438,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10983,7 +10979,7 @@
         <v>60093</v>
       </c>
       <c r="B439" s="106" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C439">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B439,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -10995,7 +10991,7 @@
         <v>5477102</v>
       </c>
       <c r="B440" s="106" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C440">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B440,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11007,7 +11003,7 @@
         <v>385138</v>
       </c>
       <c r="B441" s="106" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C441">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B441,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11022,7 +11018,7 @@
         <v>69035</v>
       </c>
       <c r="B442" s="106" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C442">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B442,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11034,7 +11030,7 @@
         <v>3017011</v>
       </c>
       <c r="B443" s="106" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C443">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B443,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11046,7 +11042,7 @@
         <v>3470102</v>
       </c>
       <c r="B444" s="106" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C444">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B444,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11058,19 +11054,19 @@
         <v>8442107</v>
       </c>
       <c r="B445" s="106" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C445">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B445,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.8">
+    <row r="446" spans="1:4" ht="16.899999999999999">
       <c r="A446" s="104">
         <v>3471116</v>
       </c>
       <c r="B446" s="106" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C446">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B446,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11082,7 +11078,7 @@
         <v>562105</v>
       </c>
       <c r="B447" s="106" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C447">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B447,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11094,7 +11090,7 @@
         <v>704110</v>
       </c>
       <c r="B448" s="106" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C448">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B448,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11106,7 +11102,7 @@
         <v>752133</v>
       </c>
       <c r="B449" s="106" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C449">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B449,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11118,7 +11114,7 @@
         <v>67201</v>
       </c>
       <c r="B450" s="106" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C450">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B450,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11133,7 +11129,7 @@
         <v>3850052</v>
       </c>
       <c r="B451" s="106" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C451">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B451,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11145,7 +11141,7 @@
         <v>3850051</v>
       </c>
       <c r="B452" s="106" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C452">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B452,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11157,7 +11153,7 @@
         <v>398908</v>
       </c>
       <c r="B453" s="106" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C453">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B453,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11169,7 +11165,7 @@
         <v>18631002</v>
       </c>
       <c r="B454" s="106" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C454">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B454,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11181,7 +11177,7 @@
         <v>18631001</v>
       </c>
       <c r="B455" s="106" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C455">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B455,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11193,7 +11189,7 @@
         <v>397148</v>
       </c>
       <c r="B456" s="106" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C456">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B456,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11205,7 +11201,7 @@
         <v>4703027</v>
       </c>
       <c r="B457" s="106" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C457">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B457,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11220,7 +11216,7 @@
         <v>3168104</v>
       </c>
       <c r="B458" s="106" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C458">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B458,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11235,7 +11231,7 @@
         <v>353143</v>
       </c>
       <c r="B459" s="106" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C459">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B459,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11250,7 +11246,7 @@
         <v>319104</v>
       </c>
       <c r="B460" s="106" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C460">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B460,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11265,7 +11261,7 @@
         <v>350172</v>
       </c>
       <c r="B461" s="106" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C461">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B461,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11280,7 +11276,7 @@
         <v>170139</v>
       </c>
       <c r="B462" s="106" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C462">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B462,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11292,7 +11288,7 @@
         <v>3769135</v>
       </c>
       <c r="B463" s="106" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C463">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B463,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11304,7 +11300,7 @@
         <v>8347096</v>
       </c>
       <c r="B464" s="106" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C464">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B464,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11316,7 +11312,7 @@
         <v>8347102</v>
       </c>
       <c r="B465" s="106" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C465">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B465,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11328,7 +11324,7 @@
         <v>285814</v>
       </c>
       <c r="B466" s="106" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C466">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B466,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11340,7 +11336,7 @@
         <v>1179383</v>
       </c>
       <c r="B467" s="106" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C467">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B467,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11355,7 +11351,7 @@
         <v>284970</v>
       </c>
       <c r="B468" s="106" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C468">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B468,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11370,7 +11366,7 @@
         <v>7628031</v>
       </c>
       <c r="B469" s="106" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C469">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B469,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11385,7 +11381,7 @@
         <v>4711018</v>
       </c>
       <c r="B470" s="106" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C470">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B470,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11397,7 +11393,7 @@
         <v>7628032</v>
       </c>
       <c r="B471" s="106" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C471">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B471,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11409,7 +11405,7 @@
         <v>7628030</v>
       </c>
       <c r="B472" s="106" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C472">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B472,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11421,7 +11417,7 @@
         <v>4493048</v>
       </c>
       <c r="B473" s="106" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C473">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B473,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11436,7 +11432,7 @@
         <v>4493045</v>
       </c>
       <c r="B474" s="106" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C474">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B474,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -11451,7 +11447,7 @@
         <v>791081</v>
       </c>
       <c r="B475" s="106" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C475">
         <f>IF('Change Request Form'!$N$34="",0,COUNTIF(B475,"*"&amp;'Change Request Form'!$N$34&amp;"*"))</f>
@@ -13842,21 +13838,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D976299DF5228E43A815C5F7DB1024D9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15ac0912e3a7d5efc20cc9ea178a2f48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed845449-84c5-4df8-b7e3-05679f7dbc04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f037aa6c4c1bd9255786b48eb0697b2" ns2:_="">
     <xsd:import namespace="ed845449-84c5-4df8-b7e3-05679f7dbc04"/>
@@ -14024,37 +14005,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98296E25-0009-4041-B51E-DBFDDE8BC280}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB547A6B-3395-4FB4-865E-89E7B4734F89}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{581DAF5E-4D63-4619-AC82-863F5B521571}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{581DAF5E-4D63-4619-AC82-863F5B521571}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB547A6B-3395-4FB4-865E-89E7B4734F89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ed845449-84c5-4df8-b7e3-05679f7dbc04"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98296E25-0009-4041-B51E-DBFDDE8BC280}"/>
 </file>